--- a/FALL 2020/CSE 480/results/jan26/SaD_203_CSE480_1_with_MarksDistribution.xlsx
+++ b/FALL 2020/CSE 480/results/jan26/SaD_203_CSE480_1_with_MarksDistribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ulab_course_materials\FALL 2020\CSE 480\results\jan26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D70774-48FA-4521-A445-D27CB794B83D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127BCECC-4095-4510-AA62-2A18E51F2B20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeSheet" sheetId="1" r:id="rId1"/>
@@ -890,7 +890,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -911,7 +911,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1382,8 +1382,8 @@
   </sheetPr>
   <dimension ref="A1:W1007"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="D25" s="27">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E25" s="45">
         <f>ROUNDUP(((O25)/(O$9))*GradeSheet!$C$38,0)</f>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F25" s="45">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G25" s="46">
         <f t="shared" si="4"/>
@@ -2808,36 +2808,36 @@
       </c>
       <c r="H25" s="46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I25" s="47">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="J25" s="48">
         <f t="shared" si="7"/>
-        <v>0.28000000000000003</v>
+        <v>0.8</v>
       </c>
       <c r="K25" s="49" t="str">
         <f>VLOOKUP(I25,GradingPolicy!$B$2:$C$11,2)</f>
-        <v>F (Fail)</v>
+        <v>A- (Minus)</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="27">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O25" s="27">
         <v>7</v>
       </c>
       <c r="P25" s="27">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q25" s="27">
         <v>16</v>
       </c>
       <c r="R25" s="51">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S25" s="53">
         <v>171014048</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="N37" s="25">
         <f>MAX(N10:N33)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O37" s="25">
         <f>MAX(O10:O33)</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="N38" s="25">
         <f>AVERAGE(N10:N33)</f>
-        <v>8.5</v>
+        <v>8.7916666666666661</v>
       </c>
       <c r="O38" s="25">
         <f>AVERAGE(O10:O33)</f>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="P38" s="25">
         <f>AVERAGE(P10:P33)</f>
-        <v>21.791666666666668</v>
+        <v>22.75</v>
       </c>
       <c r="Q38" s="25">
         <f>AVERAGE(Q10:Q33)</f>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="R38" s="25">
         <f>AVERAGE(R10:R33)</f>
-        <v>15.5</v>
+        <v>16.416666666666668</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="G39" s="26">
         <f>COUNTIF(K10:K33, "A- (Minus)")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="P39" s="25">
         <f>MIN(P10:P33)</f>
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="Q39" s="25">
         <f>MIN(Q10:Q33)</f>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="R39" s="25">
         <f>MIN(R10:R33)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="G46" s="26">
         <f>COUNTIF(K10:K33, "F (Fail)")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="B16" s="54" t="str">
         <f>VLOOKUP(GradeSheet!K25,GradingPolicy!$C$2:$D$11,2,FALSE)</f>
-        <v>F</v>
+        <v>A-</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6">
@@ -16479,7 +16479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11239E0C-BAAE-4C30-B1FF-E4D9A9015B81}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/FALL 2020/CSE 480/results/jan26/SaD_203_CSE480_1_with_MarksDistribution.xlsx
+++ b/FALL 2020/CSE 480/results/jan26/SaD_203_CSE480_1_with_MarksDistribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ulab_course_materials\FALL 2020\CSE 480\results\jan26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127BCECC-4095-4510-AA62-2A18E51F2B20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185D2004-AA72-482C-8DCE-D23F7702FB80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1382,8 +1382,8 @@
   </sheetPr>
   <dimension ref="A1:W1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -16480,7 +16480,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="N24" activeCellId="1" sqref="N21 N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4"/>
